--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/96.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/96.xlsx
@@ -479,13 +479,13 @@
         <v>-12.91931961939502</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.68080718918678</v>
+        <v>-20.66132449682213</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.271571970830545</v>
+        <v>-3.272461770080323</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.958787432879229</v>
+        <v>-8.992599804370812</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.37444392750462</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.12113559265548</v>
+        <v>-21.10746592945558</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.594974886070101</v>
+        <v>-3.586937358780893</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.873259146749419</v>
+        <v>-8.892111157228243</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.73791270656147</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.70762574541746</v>
+        <v>-21.67975840627605</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.275703181633088</v>
+        <v>-3.264209126488971</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.531952688363219</v>
+        <v>-8.55744885917418</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.07490542770156</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.83279898823108</v>
+        <v>-21.79147221318505</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.05560987049831</v>
+        <v>-3.041984208360219</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.262255513556722</v>
+        <v>-8.264494678701769</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.37483545323423</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.20313636939303</v>
+        <v>-22.15769305056505</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.079898456613144</v>
+        <v>-3.073919201214907</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.556693598551025</v>
+        <v>-7.566911622902877</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.649556670688689</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.66483462187701</v>
+        <v>-22.62091178418464</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.106910219552849</v>
+        <v>-3.09721042992889</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.47690754192419</v>
+        <v>-6.47673153767698</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.895505423874551</v>
       </c>
       <c r="E8" t="n">
-        <v>-23.16186083798131</v>
+        <v>-23.11680375069582</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.008078945738163</v>
+        <v>-3.004607750862654</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.88846178641544</v>
+        <v>-5.874474337769196</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.113232885062558</v>
       </c>
       <c r="E9" t="n">
-        <v>-23.36352259322782</v>
+        <v>-23.31553210182218</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.835946791967822</v>
+        <v>-2.833663625760972</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.100872114196643</v>
+        <v>-5.084034374546988</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.306657910161126</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.85545935318367</v>
+        <v>-23.80510747146131</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.13652782315262</v>
+        <v>-3.139118996792085</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.038838041503576</v>
+        <v>-4.013860105420507</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.480274483782101</v>
       </c>
       <c r="E11" t="n">
-        <v>-24.23032395470437</v>
+        <v>-24.16838023770056</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.207252196489411</v>
+        <v>-3.213255896921983</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.064727868305107</v>
+        <v>-3.03321821904784</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.657010655615232</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.69630986621064</v>
+        <v>-24.6267148534601</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.940771988201345</v>
+        <v>-2.937002563906954</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.157039742400544</v>
+        <v>-2.105827395469611</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.858177547057398</v>
       </c>
       <c r="E13" t="n">
-        <v>-25.33244299469927</v>
+        <v>-25.2508552481042</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.9543145372227</v>
+        <v>-2.950075768269084</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.897966379515854</v>
+        <v>-1.844725094735151</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.127723555701503</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.76057821504189</v>
+        <v>-25.68493550079697</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.705605868895869</v>
+        <v>-2.725054338212457</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.9671043610621152</v>
+        <v>-0.910494550550107</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.501855934464795</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.48041114109211</v>
+        <v>-26.40814184158537</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.583434476298532</v>
+        <v>-2.595319651992002</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0740832557582977</v>
+        <v>-0.03095243717837403</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.027887405663312</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.10107789635726</v>
+        <v>-27.02675276946298</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.417970927894662</v>
+        <v>-2.42705470265339</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3895803774861821</v>
+        <v>0.4420980892505825</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.737147232016494</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.07084907596134</v>
+        <v>-27.97534232681616</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.43309262613403</v>
+        <v>-2.438094080158884</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7766674961741732</v>
+        <v>0.8152368713472652</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.656729899016967</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.78104576947688</v>
+        <v>-28.69698662991057</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.381010035980785</v>
+        <v>-2.373632524618611</v>
       </c>
       <c r="G18" t="n">
-        <v>1.07270175097274</v>
+        <v>1.109682198914085</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.789921922523901</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.29056828713302</v>
+        <v>-29.20250993994958</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.411356101603726</v>
+        <v>-2.424258190725515</v>
       </c>
       <c r="G19" t="n">
-        <v>1.426665848137382</v>
+        <v>1.449644180411883</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.129400614957289</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.08133336931187</v>
+        <v>-29.98901425264392</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.119003268975946</v>
+        <v>-2.122161567411973</v>
       </c>
       <c r="G20" t="n">
-        <v>1.346236796169765</v>
+        <v>1.360346469987681</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.645759833574337</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.89084290381848</v>
+        <v>-30.79935491831791</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.004830291612882</v>
+        <v>-2.009513960191386</v>
       </c>
       <c r="G21" t="n">
-        <v>1.029126032767927</v>
+        <v>1.025009488985985</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.303483079440346</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.27051828809623</v>
+        <v>-31.16188455551338</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.989332139844761</v>
+        <v>-1.999178599674728</v>
       </c>
       <c r="G22" t="n">
-        <v>1.087544775820694</v>
+        <v>1.087500774758892</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.05136592944829</v>
       </c>
       <c r="E23" t="n">
-        <v>-32.01680807480677</v>
+        <v>-31.92644700538901</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.803843219314008</v>
+        <v>-1.803334762599849</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28569133512989</v>
+        <v>1.274392840260449</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.837806033896862</v>
       </c>
       <c r="E24" t="n">
-        <v>-32.37155930207698</v>
+        <v>-32.25610784941821</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.696260623207544</v>
+        <v>-1.696602853688228</v>
       </c>
       <c r="G24" t="n">
-        <v>1.118638859494273</v>
+        <v>1.100974877684109</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.602458870826332</v>
       </c>
       <c r="E25" t="n">
-        <v>-32.96809636395047</v>
+        <v>-32.85926951559638</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.517337638899058</v>
+        <v>-1.51297664477377</v>
       </c>
       <c r="G25" t="n">
-        <v>0.796218634634966</v>
+        <v>0.773802538150161</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.291691733494752</v>
       </c>
       <c r="E26" t="n">
-        <v>-32.6791707251364</v>
+        <v>-32.57123856503895</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.553457621631826</v>
+        <v>-1.541948899467108</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7736558679441535</v>
+        <v>0.75264780543702</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.852742722056778</v>
       </c>
       <c r="E27" t="n">
-        <v>-33.20529386560916</v>
+        <v>-33.0971783677542</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.338571102810313</v>
+        <v>-1.330626466651576</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9900237558463415</v>
+        <v>0.9743349328104114</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.247059732574325</v>
       </c>
       <c r="E28" t="n">
-        <v>-32.93220860904388</v>
+        <v>-32.82168527530698</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.269049425162782</v>
+        <v>-1.260371437974008</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9068421930126506</v>
+        <v>0.8982228739062795</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.444576989181506</v>
       </c>
       <c r="E29" t="n">
-        <v>-33.28746829302826</v>
+        <v>-33.19863014924955</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.217382400593225</v>
+        <v>-1.196071219660343</v>
       </c>
       <c r="G29" t="n">
-        <v>1.54489181219312</v>
+        <v>1.541748180777693</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.430439663993994</v>
       </c>
       <c r="E30" t="n">
-        <v>-33.44753926685792</v>
+        <v>-33.34229606053728</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.257609149094201</v>
+        <v>-1.252832589385225</v>
       </c>
       <c r="G30" t="n">
-        <v>1.767038506212001</v>
+        <v>1.770979045746734</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.20400575410112</v>
       </c>
       <c r="E31" t="n">
-        <v>-33.14063186078734</v>
+        <v>-33.05493245941719</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.537803021643964</v>
+        <v>-1.534933174613085</v>
       </c>
       <c r="G31" t="n">
-        <v>2.367379215427955</v>
+        <v>2.380721315167766</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.779377001000101</v>
       </c>
       <c r="E32" t="n">
-        <v>-33.0125496588879</v>
+        <v>-32.92532488737527</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.647800787142683</v>
+        <v>-1.640041933244889</v>
       </c>
       <c r="G32" t="n">
-        <v>2.530007139849014</v>
+        <v>2.543921253392254</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.187264378742394</v>
       </c>
       <c r="E33" t="n">
-        <v>-32.21784892618118</v>
+        <v>-32.13105438727283</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.85448844144838</v>
+        <v>-1.863264208774492</v>
       </c>
       <c r="G33" t="n">
-        <v>3.359749829274351</v>
+        <v>3.3915577079505</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.462401182935511</v>
       </c>
       <c r="E34" t="n">
-        <v>-32.02625852508051</v>
+        <v>-31.93598545778636</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.066925567829568</v>
+        <v>-2.06985408294285</v>
       </c>
       <c r="G34" t="n">
-        <v>3.901119337661577</v>
+        <v>3.935513500970324</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.652167677363097</v>
       </c>
       <c r="E35" t="n">
-        <v>-31.56748634320638</v>
+        <v>-31.48278918824395</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.227372995187983</v>
+        <v>-2.221652857153692</v>
       </c>
       <c r="G35" t="n">
-        <v>4.389198671199431</v>
+        <v>4.425123093657522</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.799251013595955</v>
       </c>
       <c r="E36" t="n">
-        <v>-31.90363489934798</v>
+        <v>-31.82151425100441</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.2585501919783</v>
+        <v>-2.260222232326784</v>
       </c>
       <c r="G36" t="n">
-        <v>4.689804147418563</v>
+        <v>4.723914748329029</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.95526518128324</v>
       </c>
       <c r="E37" t="n">
-        <v>-31.0912848518517</v>
+        <v>-31.01596970106687</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.263023633261527</v>
+        <v>-2.269496678353322</v>
       </c>
       <c r="G37" t="n">
-        <v>4.906289371485557</v>
+        <v>4.956303911734097</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.158051553790482</v>
       </c>
       <c r="E38" t="n">
-        <v>-30.50819500336565</v>
+        <v>-30.43545147019282</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.504457459370387</v>
+        <v>-2.514602148619236</v>
       </c>
       <c r="G38" t="n">
-        <v>5.151155280414992</v>
+        <v>5.18420007782847</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.447650405211344</v>
       </c>
       <c r="E39" t="n">
-        <v>-29.76325947155726</v>
+        <v>-29.69680075671184</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.506755292597838</v>
+        <v>-2.520327175660393</v>
       </c>
       <c r="G39" t="n">
-        <v>5.461416545196282</v>
+        <v>5.504376248535864</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.847063455017823</v>
       </c>
       <c r="E40" t="n">
-        <v>-29.47738701753157</v>
+        <v>-29.41258567601405</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.661306577674753</v>
+        <v>-2.671197038566522</v>
       </c>
       <c r="G40" t="n">
-        <v>5.299443747695389</v>
+        <v>5.3455910835122</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.378449090477416</v>
       </c>
       <c r="E41" t="n">
-        <v>-28.98584382262851</v>
+        <v>-28.92459190009636</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.631341854587431</v>
+        <v>-2.647529356323786</v>
       </c>
       <c r="G41" t="n">
-        <v>5.705925556624432</v>
+        <v>5.744367817618985</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.047208109367106</v>
       </c>
       <c r="E42" t="n">
-        <v>-28.37965830570316</v>
+        <v>-28.3135907114071</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.62784132567072</v>
+        <v>-2.640078509858608</v>
       </c>
       <c r="G42" t="n">
-        <v>5.546275037385325</v>
+        <v>5.582971922928388</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.8552363622962212</v>
       </c>
       <c r="E43" t="n">
-        <v>-27.74706237368273</v>
+        <v>-27.68731870976903</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.679659909453151</v>
+        <v>-2.700100847163723</v>
       </c>
       <c r="G43" t="n">
-        <v>5.932550580933407</v>
+        <v>5.977446330992287</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.7906151487673634</v>
       </c>
       <c r="E44" t="n">
-        <v>-27.08741556666767</v>
+        <v>-27.03618366370926</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.734182114032987</v>
+        <v>-2.751327861115258</v>
       </c>
       <c r="G44" t="n">
-        <v>5.59469576139525</v>
+        <v>5.625296055375271</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.8373519152400558</v>
       </c>
       <c r="E45" t="n">
-        <v>-26.20817168271482</v>
+        <v>-26.13741797533682</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.586343435384346</v>
+        <v>-2.602447824003964</v>
       </c>
       <c r="G45" t="n">
-        <v>5.468094928576487</v>
+        <v>5.491752832805489</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.9714796825825412</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.64706036459899</v>
+        <v>-25.58188012504928</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.494381216217676</v>
+        <v>-2.516660420510207</v>
       </c>
       <c r="G46" t="n">
-        <v>5.417342148291043</v>
+        <v>5.444275687120878</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.167813733758217</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.82813704737013</v>
+        <v>-24.76665778601868</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.524448608449203</v>
+        <v>-2.549974113301366</v>
       </c>
       <c r="G47" t="n">
-        <v>5.424401874206868</v>
+        <v>5.456048415656409</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.399156793927938</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.49963000896151</v>
+        <v>-24.4554333868846</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.470107297123443</v>
+        <v>-2.490690016033155</v>
       </c>
       <c r="G48" t="n">
-        <v>5.266354949220109</v>
+        <v>5.299781089169207</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.640306155474009</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.49919742279157</v>
+        <v>-23.45279585861769</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.441154598457573</v>
+        <v>-2.468117471328609</v>
       </c>
       <c r="G49" t="n">
-        <v>4.938429702628656</v>
+        <v>4.953610068950427</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.868616810076865</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.0940063116754</v>
+        <v>-23.05290443094524</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.300258309559951</v>
+        <v>-2.320679691243055</v>
       </c>
       <c r="G50" t="n">
-        <v>4.860489155156298</v>
+        <v>4.886816457134635</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.06635242005052</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.67459307958337</v>
+        <v>-22.62312161528849</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.088099856570177</v>
+        <v>-2.117292116572526</v>
       </c>
       <c r="G51" t="n">
-        <v>4.696634090011643</v>
+        <v>4.705224075076813</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.219875612561248</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.81768706800545</v>
+        <v>-21.77141750701697</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.956859356234712</v>
+        <v>-1.990911289062774</v>
       </c>
       <c r="G52" t="n">
-        <v>4.557840074066795</v>
+        <v>4.571201729834073</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.322425183361446</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.82739428207749</v>
+        <v>-20.77715484751307</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.056453315120636</v>
+        <v>-2.092128398228515</v>
       </c>
       <c r="G53" t="n">
-        <v>4.403704354573567</v>
+        <v>4.427631154180249</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.371536818963344</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.18209915472026</v>
+        <v>-20.12568490448292</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.726156900198729</v>
+        <v>-1.759064805419934</v>
       </c>
       <c r="G54" t="n">
-        <v>4.479395958887144</v>
+        <v>4.487961498917979</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.371603477767413</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.5318123513519</v>
+        <v>-19.48285383658661</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.779031509464414</v>
+        <v>-1.814071021679594</v>
       </c>
       <c r="G55" t="n">
-        <v>3.955206420630258</v>
+        <v>3.963493287269678</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.329924289129671</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.07874808499489</v>
+        <v>-19.02747706998155</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.942871907588468</v>
+        <v>-1.980385257278307</v>
       </c>
       <c r="G56" t="n">
-        <v>4.037278178905159</v>
+        <v>4.033865652112052</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.258381615150113</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.62471579527823</v>
+        <v>-18.57222741755503</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.898328166024006</v>
+        <v>-1.938462023394511</v>
       </c>
       <c r="G57" t="n">
-        <v>3.514623788804483</v>
+        <v>3.497409595626076</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.170080062616006</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.70540650005101</v>
+        <v>-17.66712557628307</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.24496853090201</v>
+        <v>-2.277900881157549</v>
       </c>
       <c r="G58" t="n">
-        <v>3.156611593954035</v>
+        <v>3.138571158615119</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.078933765240933</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.24948705368373</v>
+        <v>-17.20276770406349</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.264275219019457</v>
+        <v>-2.297178235233794</v>
       </c>
       <c r="G59" t="n">
-        <v>3.131374540507021</v>
+        <v>3.109633126969849</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.998185761156279</v>
       </c>
       <c r="E60" t="n">
-        <v>-16.61649755661051</v>
+        <v>-16.57965888986831</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.377538841105276</v>
+        <v>-2.412739690547063</v>
       </c>
       <c r="G60" t="n">
-        <v>2.659912941309811</v>
+        <v>2.627029481122941</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.938488527061754</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.85829570466874</v>
+        <v>-15.8238722073188</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.238906162387035</v>
+        <v>-2.279132910888011</v>
       </c>
       <c r="G61" t="n">
-        <v>2.208887390816307</v>
+        <v>2.176580833439732</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.909552385634999</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.86372739129789</v>
+        <v>-15.84733944027999</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.58904705618175</v>
+        <v>-2.631346743594298</v>
       </c>
       <c r="G62" t="n">
-        <v>1.630825885892884</v>
+        <v>1.587475062003949</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.916204749542515</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.21623221085054</v>
+        <v>-15.18760707564475</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.780510343103873</v>
+        <v>-2.820135743760219</v>
       </c>
       <c r="G63" t="n">
-        <v>1.272789246008101</v>
+        <v>1.235021667961183</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.962579296235565</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.1222410538341</v>
+        <v>-15.09617775822657</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.995685313330534</v>
+        <v>-3.027742531356895</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8458567213547535</v>
+        <v>0.8037232601756805</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.046570351410622</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.7449075038456</v>
+        <v>-14.7179984100501</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.976481294357292</v>
+        <v>-2.999713854988872</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7815565030410881</v>
+        <v>0.7309943940234537</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.165007132110347</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.6338439348499</v>
+        <v>-14.59733283156777</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.884313736902211</v>
+        <v>-2.909712127575835</v>
       </c>
       <c r="G66" t="n">
-        <v>0.2977354944843179</v>
+        <v>0.2552304687833594</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.30837650750869</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.28059852169469</v>
+        <v>-14.24971955432325</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.150490826764529</v>
+        <v>-3.170843762351496</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3199902537425148</v>
+        <v>0.2749918345394296</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.468003641015342</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.32462402853126</v>
+        <v>-14.295906002195</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.420706236298918</v>
+        <v>-3.445713506423188</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3679709671344181</v>
+        <v>0.3358453030119199</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.631058436937038</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.19298751863957</v>
+        <v>-14.15674042172827</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.376783398606554</v>
+        <v>-3.406733454673275</v>
       </c>
       <c r="G69" t="n">
-        <v>0.5661028594230133</v>
+        <v>0.5224538061151967</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.787782448379728</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.33380558342732</v>
+        <v>-14.30640758894513</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.686374869447076</v>
+        <v>-3.699912529461564</v>
       </c>
       <c r="G70" t="n">
-        <v>0.6032104215428977</v>
+        <v>0.5628712258839825</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.927573660711828</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.12799306135081</v>
+        <v>-14.09056771378457</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.642750261173594</v>
+        <v>-3.663904993886735</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7038261828640073</v>
+        <v>0.6655501481029302</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.045212200441723</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.0982776776137</v>
+        <v>-14.06976010055898</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.83820297769912</v>
+        <v>-3.852865109292998</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5889540775189738</v>
+        <v>0.557610654495182</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.135644329761781</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.36381919658332</v>
+        <v>-14.34362270921609</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.716980052433964</v>
+        <v>-3.734634256230394</v>
       </c>
       <c r="G73" t="n">
-        <v>1.013094979251313</v>
+        <v>0.9863472226824215</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.198850693388287</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.99132811695872</v>
+        <v>-14.98043540965923</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.7846390184652</v>
+        <v>-3.794729928638512</v>
       </c>
       <c r="G74" t="n">
-        <v>1.330631086250572</v>
+        <v>1.30014323942849</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.235323895327424</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.08882469189873</v>
+        <v>-15.07962846998207</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.895516805199964</v>
+        <v>-3.905847276709755</v>
       </c>
       <c r="G75" t="n">
-        <v>1.580586451328466</v>
+        <v>1.551252410126976</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.249395198040426</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.5292606535185</v>
+        <v>-15.53140203852621</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.751369326735844</v>
+        <v>-3.759196626729775</v>
       </c>
       <c r="G76" t="n">
-        <v>1.874625991325331</v>
+        <v>1.857460688215593</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.246425365985564</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.13479348802712</v>
+        <v>-16.14684977896093</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.90312898889175</v>
+        <v>-3.910785173645339</v>
       </c>
       <c r="G77" t="n">
-        <v>2.210314980821446</v>
+        <v>2.173647429319583</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.233402472456603</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.96179344460012</v>
+        <v>-16.97349772703951</v>
       </c>
       <c r="F78" t="n">
-        <v>-4.244772788751767</v>
+        <v>-4.247759971947452</v>
       </c>
       <c r="G78" t="n">
-        <v>2.546502649017985</v>
+        <v>2.509971989708397</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.218387451629946</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.6341981150344</v>
+        <v>-17.63822176768587</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.971555529001092</v>
+        <v>-3.975466734494624</v>
       </c>
       <c r="G79" t="n">
-        <v>2.703131762013339</v>
+        <v>2.661350309328684</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.207606761612461</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.36454240584849</v>
+        <v>-18.37090789278921</v>
       </c>
       <c r="F80" t="n">
-        <v>-4.065796025367745</v>
+        <v>-4.062847954226995</v>
       </c>
       <c r="G80" t="n">
-        <v>2.869915342271276</v>
+        <v>2.839329715311856</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.207540443822713</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.54883098425563</v>
+        <v>-19.5594156841225</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.88913665123864</v>
+        <v>-3.900591594327822</v>
       </c>
       <c r="G81" t="n">
-        <v>3.240140276275277</v>
+        <v>3.203027825148526</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.220109827611983</v>
       </c>
       <c r="E82" t="n">
-        <v>-20.62773213063955</v>
+        <v>-20.64067333181628</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.856238524031169</v>
+        <v>-3.866388102286884</v>
       </c>
       <c r="G82" t="n">
-        <v>3.630351470351227</v>
+        <v>3.614779983480103</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.247559502316518</v>
       </c>
       <c r="E83" t="n">
-        <v>-21.70888710918912</v>
+        <v>-21.72781734377782</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.650817122504004</v>
+        <v>-3.642735594152994</v>
       </c>
       <c r="G83" t="n">
-        <v>3.97258684004214</v>
+        <v>3.955470427001071</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.28710950820799</v>
       </c>
       <c r="E84" t="n">
-        <v>-23.15203882318568</v>
+        <v>-23.1793145924962</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.821174566781655</v>
+        <v>-3.823467511002238</v>
       </c>
       <c r="G84" t="n">
-        <v>3.916236146894078</v>
+        <v>3.898831282447861</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.33874826235499</v>
       </c>
       <c r="E85" t="n">
-        <v>-24.07707803446092</v>
+        <v>-24.10819656316884</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.709578096037454</v>
+        <v>-3.70671802702031</v>
       </c>
       <c r="G85" t="n">
-        <v>4.205890247731322</v>
+        <v>4.199808323188879</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.398235673363984</v>
       </c>
       <c r="E86" t="n">
-        <v>-25.86673811015007</v>
+        <v>-25.91235254421839</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.715963139005646</v>
+        <v>-3.700655658505335</v>
       </c>
       <c r="G86" t="n">
-        <v>4.577792111090675</v>
+        <v>4.552100380005037</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.464843377659761</v>
       </c>
       <c r="E87" t="n">
-        <v>-27.01258931656953</v>
+        <v>-27.06457412658544</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.576029984460806</v>
+        <v>-3.570906305264279</v>
       </c>
       <c r="G87" t="n">
-        <v>4.974515462313355</v>
+        <v>4.959022199552102</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.534321835444934</v>
       </c>
       <c r="E88" t="n">
-        <v>-28.63029079823212</v>
+        <v>-28.69355454709</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.398417253992653</v>
+        <v>-3.394750498842467</v>
       </c>
       <c r="G88" t="n">
-        <v>5.123610615726793</v>
+        <v>5.112664129351771</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.607438968734224</v>
       </c>
       <c r="E89" t="n">
-        <v>-30.21728442776361</v>
+        <v>-30.29696301717716</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.504357143791833</v>
+        <v>-3.501721969090565</v>
       </c>
       <c r="G89" t="n">
-        <v>5.349086723422044</v>
+        <v>5.32977514629773</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.68175582658242</v>
       </c>
       <c r="E90" t="n">
-        <v>-31.94312829681892</v>
+        <v>-32.00647026978667</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.592149040101024</v>
+        <v>-3.593239288632347</v>
       </c>
       <c r="G90" t="n">
-        <v>5.360668780689766</v>
+        <v>5.355080645840881</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.761448270479276</v>
       </c>
       <c r="E91" t="n">
-        <v>-33.76676208122627</v>
+        <v>-33.823161664443</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.869561067743513</v>
+        <v>-3.873697167552923</v>
       </c>
       <c r="G91" t="n">
-        <v>5.081628713760595</v>
+        <v>5.087475965973425</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.847809557922909</v>
       </c>
       <c r="E92" t="n">
-        <v>-35.7385303291977</v>
+        <v>-35.81121519428812</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.703779733893294</v>
+        <v>-3.711983487415977</v>
       </c>
       <c r="G92" t="n">
-        <v>4.698672805875146</v>
+        <v>4.704490724046775</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.950339599623606</v>
       </c>
       <c r="E93" t="n">
-        <v>-37.92304371098294</v>
+        <v>-37.99357007954162</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.821267457912127</v>
+        <v>-3.833729536415893</v>
       </c>
       <c r="G93" t="n">
-        <v>4.585956752558423</v>
+        <v>4.586411430197046</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.074134374664764</v>
       </c>
       <c r="E94" t="n">
-        <v>-40.08093400587439</v>
+        <v>-40.1553055783339</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.109014846071273</v>
+        <v>-4.127060170417056</v>
       </c>
       <c r="G94" t="n">
-        <v>4.408578694419881</v>
+        <v>4.4115756556293</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.228461781081454</v>
       </c>
       <c r="E95" t="n">
-        <v>-42.46937519758895</v>
+        <v>-42.54495924375146</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.015189915288308</v>
+        <v>-4.037469119580839</v>
       </c>
       <c r="G95" t="n">
-        <v>4.186901345060224</v>
+        <v>4.188534273353773</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.423843590596112</v>
       </c>
       <c r="E96" t="n">
-        <v>-44.73693569451904</v>
+        <v>-44.80299351080136</v>
       </c>
       <c r="F96" t="n">
-        <v>-4.162085015611635</v>
+        <v>-4.17946054601665</v>
       </c>
       <c r="G96" t="n">
-        <v>3.564716553162894</v>
+        <v>3.560487562223012</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.660718148515021</v>
       </c>
       <c r="E97" t="n">
-        <v>-46.85907757119961</v>
+        <v>-46.92648842013235</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.161224550403057</v>
+        <v>-4.187507851319593</v>
       </c>
       <c r="G97" t="n">
-        <v>3.137407574980793</v>
+        <v>3.140644097526691</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.957745185589666</v>
       </c>
       <c r="E98" t="n">
-        <v>-48.98541666027543</v>
+        <v>-49.03895128546814</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.266362643076063</v>
+        <v>-4.299925675217435</v>
       </c>
       <c r="G98" t="n">
-        <v>2.754916122747702</v>
+        <v>2.752276059039569</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.29672870714462</v>
       </c>
       <c r="E99" t="n">
-        <v>-51.20524944991897</v>
+        <v>-51.27074869716675</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.282134579228731</v>
+        <v>-4.31985326720698</v>
       </c>
       <c r="G99" t="n">
-        <v>2.381288439964328</v>
+        <v>2.369168591941246</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.712810394763208</v>
       </c>
       <c r="E100" t="n">
-        <v>-53.93934709387957</v>
+        <v>-53.99939509847074</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.467276380271933</v>
+        <v>-4.493007223412507</v>
       </c>
       <c r="G100" t="n">
-        <v>1.907387226340528</v>
+        <v>1.89231441816983</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.148387056492688</v>
       </c>
       <c r="E101" t="n">
-        <v>-56.28078048456874</v>
+        <v>-56.33715928950629</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.478965995690727</v>
+        <v>-4.502956352386678</v>
       </c>
       <c r="G101" t="n">
-        <v>1.47918844890865</v>
+        <v>1.461421797954281</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.69102001938492</v>
       </c>
       <c r="E102" t="n">
-        <v>-58.43177116851926</v>
+        <v>-58.49304936946331</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.321603531665335</v>
+        <v>-4.343848512909799</v>
       </c>
       <c r="G102" t="n">
-        <v>0.8683168189013608</v>
+        <v>0.8584996931125956</v>
       </c>
     </row>
   </sheetData>
